--- a/家装.xlsx
+++ b/家装.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -16,8 +16,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,12 +32,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,8 +58,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -61,73 +68,15 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
+    <mruColors>
+      <color rgb="FFF019F5"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -163,12 +112,14 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
           <a:off x="647699" y="0"/>
-          <a:ext cx="8677275" cy="6715125"/>
+          <a:ext cx="8715375" cy="6796454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
         <a:ln w="1">
           <a:noFill/>
           <a:miter lim="800000"/>
@@ -185,11 +136,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>7327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>249115</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
@@ -199,9 +150,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3981450" y="3095625"/>
-          <a:ext cx="485775" cy="1"/>
+        <a:xfrm flipV="1">
+          <a:off x="3996104" y="3121269"/>
+          <a:ext cx="385396" cy="11724"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -275,13 +226,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>7327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>534866</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>57153</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -290,8 +241,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4105275" y="2914650"/>
-          <a:ext cx="1819275" cy="38101"/>
+          <a:off x="4119929" y="2938096"/>
+          <a:ext cx="1924783" cy="49826"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -363,13 +314,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>438154</xdr:colOff>
+      <xdr:colOff>526078</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>447677</xdr:colOff>
+      <xdr:colOff>535601</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -380,8 +331,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="5372103" y="2362201"/>
-          <a:ext cx="1114425" cy="9523"/>
+          <a:off x="5476879" y="2390776"/>
+          <a:ext cx="1127613" cy="9523"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -408,25 +359,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>352428</xdr:colOff>
+      <xdr:colOff>234461</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>7327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>361953</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:colOff>241052</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46894</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="18" name="直接连接符 17"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="168" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="4143378" y="3409950"/>
-          <a:ext cx="657226" cy="9525"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4366846" y="3121269"/>
+          <a:ext cx="6591" cy="1321779"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -453,25 +406,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
+      <xdr:colOff>373674</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>390527</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>403711</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="27" name="直接连接符 26"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="93" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5576888" y="3281362"/>
-          <a:ext cx="590551" cy="9526"/>
+        <a:xfrm>
+          <a:off x="5883520" y="3026018"/>
+          <a:ext cx="30037" cy="1301263"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -498,15 +453,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>533402</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>542193</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>542927</xdr:colOff>
+      <xdr:colOff>542928</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>152402</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -514,9 +469,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="5114927" y="2638425"/>
-          <a:ext cx="447676" cy="9525"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5363308" y="2212731"/>
+          <a:ext cx="735" cy="687267"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -903,15 +858,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
+      <xdr:colOff>395654</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>114302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
+      <xdr:colOff>400052</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>73270</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -919,9 +874,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="3162301" y="2362200"/>
-          <a:ext cx="1495425" cy="9525"/>
+        <a:xfrm flipV="1">
+          <a:off x="3839308" y="1579687"/>
+          <a:ext cx="4398" cy="1607525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -948,15 +903,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476254</xdr:colOff>
+      <xdr:colOff>400054</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>171456</xdr:rowOff>
+      <xdr:rowOff>114306</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -965,7 +920,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3905254" y="1609725"/>
+          <a:off x="3829054" y="1552575"/>
           <a:ext cx="447671" cy="9531"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -993,13 +948,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>400051</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>58616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476252</xdr:colOff>
+      <xdr:colOff>410308</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
@@ -1009,9 +964,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2457450" y="3114674"/>
-          <a:ext cx="1447802" cy="28575"/>
+        <a:xfrm flipH="1">
+          <a:off x="2466243" y="3172558"/>
+          <a:ext cx="1387719" cy="8058"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1037,26 +992,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>394918</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400054</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2932</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="92" name="直接连接符 91"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="128" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1876427" y="3714751"/>
-          <a:ext cx="1171575" cy="9521"/>
+        <a:xfrm flipH="1">
+          <a:off x="2461110" y="3171091"/>
+          <a:ext cx="5136" cy="1594341"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1083,15 +1040,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95252</xdr:rowOff>
+      <xdr:rowOff>19052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1100,13 +1057,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3524250" y="1543052"/>
+          <a:off x="3514725" y="1466852"/>
           <a:ext cx="809625" cy="19048"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575"/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1134,9 +1095,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>104777</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1144,14 +1105,18 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3405186" y="1443038"/>
-          <a:ext cx="209552" cy="9525"/>
+        <a:xfrm>
+          <a:off x="3505199" y="1343025"/>
+          <a:ext cx="1" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575"/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1196,7 +1161,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575"/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1218,15 +1187,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1235,7 +1204,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6591300" y="1685925"/>
+          <a:off x="6562725" y="1695450"/>
           <a:ext cx="190500" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1513,15 +1482,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1530,8 +1499,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3076575" y="3248025"/>
-          <a:ext cx="190500" cy="628650"/>
+          <a:off x="3009900" y="3257550"/>
+          <a:ext cx="438150" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1628,18 +1597,4254 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466727</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>468923</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接连接符 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3910381" y="1636836"/>
+          <a:ext cx="2196" cy="1762856"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466729</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171456</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接连接符 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3895729" y="1609725"/>
+          <a:ext cx="447671" cy="9531"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>449873</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>98914</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直接连接符 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3893527" y="3392365"/>
+          <a:ext cx="238858" cy="3664"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>679940</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>93788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12823</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63743</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接连接符 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="127" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4123594" y="3390903"/>
+          <a:ext cx="21614" cy="1618513"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>141410</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>90121</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="椭圆 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6563458" y="2861896"/>
+          <a:ext cx="190500" cy="637442"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000">
+            <a:alpha val="66000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>586887</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>182442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="椭圆 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4994031" y="2882413"/>
+          <a:ext cx="190500" cy="637442"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000">
+            <a:alpha val="66000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>275492</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>154597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>621322</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>49822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="椭圆 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3719146" y="1619982"/>
+          <a:ext cx="345830" cy="261571"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000">
+            <a:alpha val="66000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>468921</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>102578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>593477</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>43963</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="剪去同侧角的矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7356228" y="2483829"/>
+          <a:ext cx="124558" cy="124556"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>146539</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>87924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>322385</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="流程图: 对照 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6345116" y="2652347"/>
+          <a:ext cx="175846" cy="146538"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartCollate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F019F5"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>386861</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>562707</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="流程图: 对照 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7274169" y="2211267"/>
+          <a:ext cx="175846" cy="146538"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartCollate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F019F5"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>262304</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>145073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>386860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>86458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="剪去同侧角的矩形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5772149" y="1793632"/>
+          <a:ext cx="124558" cy="124556"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395655</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523877</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直接连接符 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5905501" y="1843456"/>
+          <a:ext cx="128222" cy="2929"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542192</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>564173</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直接连接符 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6052038" y="2762251"/>
+          <a:ext cx="1399443" cy="14653"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540726</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542192</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>13189</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直接连接符 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7428034" y="2615712"/>
+          <a:ext cx="1466" cy="145073"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>79131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>467455</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>20516</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="剪去同侧角的矩形 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5852744" y="2277209"/>
+          <a:ext cx="124558" cy="124556"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>467455</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546315</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139122</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直接连接符 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5977301" y="2334999"/>
+          <a:ext cx="78860" cy="2200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>291616</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>424961</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>122366</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直接连接符 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6490193" y="2674327"/>
+          <a:ext cx="822076" cy="12462"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>417634</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>153866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>422036</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120903</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直接连接符 73"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7304942" y="2351943"/>
+          <a:ext cx="4402" cy="333383"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>567109</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>483577</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>16862</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直接连接符 81"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6765686" y="2014904"/>
+          <a:ext cx="605199" cy="16862"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>483577</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>483577</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>21983</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直接连接符 85"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7370885" y="2029558"/>
+          <a:ext cx="0" cy="190502"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>341433</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>465989</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>55685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="剪去同侧角的矩形 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5851278" y="4327282"/>
+          <a:ext cx="124558" cy="124556"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>v</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>380267</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>512886</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="剪去同侧角的矩形 93"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5890113" y="5018208"/>
+          <a:ext cx="132619" cy="125291"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>v</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137747</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>181708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>313593</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>145073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="流程图: 对照 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6336324" y="3478823"/>
+          <a:ext cx="175846" cy="146538"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartCollate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F019F5"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>407376</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>84993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>583222</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>48358</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="流程图: 对照 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7294684" y="3931628"/>
+          <a:ext cx="175846" cy="146538"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartCollate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F019F5"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>454271</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>87922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>586157</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="剪去同侧角的矩形 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7323262" y="3769701"/>
+          <a:ext cx="168520" cy="131886"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>v</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403711</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>55685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409942</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72535</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直接连接符 98"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="93" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5913557" y="4451839"/>
+          <a:ext cx="6231" cy="566369"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>387592</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>527538</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>39566</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直接连接符 101"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5897438" y="3502269"/>
+          <a:ext cx="1517408" cy="17585"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520211</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520215</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80595</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直接连接符 103"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7407519" y="3509596"/>
+          <a:ext cx="4" cy="234461"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>268170</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>401515</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>135555</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="直接连接符 107"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6466747" y="3603381"/>
+          <a:ext cx="822076" cy="12462"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>401514</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>405916</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>90130</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="直接连接符 108"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7288822" y="3603382"/>
+          <a:ext cx="4402" cy="333383"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>624258</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>490904</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>81339</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直接连接符 109"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6822835" y="4286250"/>
+          <a:ext cx="555377" cy="8070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>489438</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>64477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>489438</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71806</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="直接连接符 110"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7376746" y="4094285"/>
+          <a:ext cx="0" cy="190502"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276958</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>93785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>452804</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="流程图: 对照 122"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5098073" y="2658208"/>
+          <a:ext cx="175846" cy="146538"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartCollate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F019F5"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323855</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>364881</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>93785</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="直接连接符 123"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="123" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5144970" y="2521205"/>
+          <a:ext cx="41026" cy="137003"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>473319</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>637442</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="剪去同侧角的矩形 124"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5294434" y="2121876"/>
+          <a:ext cx="164123" cy="156797"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635244</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>79132</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>5861</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="剪去同侧角的矩形 126"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4078898" y="5009416"/>
+          <a:ext cx="132619" cy="125291"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>v</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>332640</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457196</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127490</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="剪去同侧角的矩形 127"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2398831" y="4765433"/>
+          <a:ext cx="124558" cy="124556"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>v</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>473320</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>649166</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>84992</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="流程图: 对照 128"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3916974" y="5250473"/>
+          <a:ext cx="175846" cy="146538"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartCollate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F019F5"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>21985</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>577362</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>131162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直接连接符 129"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3465639" y="5618284"/>
+          <a:ext cx="555377" cy="8070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561242</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>99647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561242</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>106976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="直接连接符 130"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4004896" y="5411666"/>
+          <a:ext cx="0" cy="190502"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>253512</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>429358</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63011</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="流程图: 对照 131"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2319704" y="1931377"/>
+          <a:ext cx="175846" cy="146538"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartCollate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F019F5"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>386866</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>41763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>115043</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="直接连接符 132"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="120" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2453058" y="1873494"/>
+          <a:ext cx="232259" cy="73280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>178774</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>303330</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171452</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="剪去同侧角的矩形 167"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4311158" y="4443049"/>
+          <a:ext cx="124558" cy="124556"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>v</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>678473</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165589</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>128954</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="流程图: 对照 168"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810858" y="3462704"/>
+          <a:ext cx="175846" cy="146538"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartCollate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F019F5"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>61545</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>237391</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="流程图: 对照 169"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5571391" y="3959471"/>
+          <a:ext cx="175846" cy="146538"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartCollate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F019F5"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>108440</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>115765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>240326</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="剪去同侧角的矩形 170"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5599969" y="3797544"/>
+          <a:ext cx="168520" cy="131886"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>v</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>234461</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>159728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="直接连接符 171"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4366846" y="3429000"/>
+          <a:ext cx="1339360" cy="27843"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>174384</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>197827</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>108439</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="173" name="直接连接符 172"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5684230" y="3443654"/>
+          <a:ext cx="23443" cy="328247"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120166</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>80596</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119436</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="174" name="直接连接符 173"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4941281" y="3582865"/>
+          <a:ext cx="649161" cy="16859"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>278427</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>145073</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>109182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="175" name="直接连接符 174"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5099542" y="4314093"/>
+          <a:ext cx="555377" cy="8070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>143607</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>92320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>143607</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="176" name="直接连接符 175"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5653453" y="4122128"/>
+          <a:ext cx="0" cy="190502"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>77664</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>80596</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="181" name="直接连接符 180"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5587510" y="3579937"/>
+          <a:ext cx="2932" cy="369275"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>615462</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>124558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>90854</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>98182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="剪去同侧角的矩形 188"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4059116" y="5253404"/>
+          <a:ext cx="164123" cy="156797"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>294540</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419096</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>126023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="剪去同侧角的矩形 190"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2360731" y="3848101"/>
+          <a:ext cx="124558" cy="124556"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>v</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>359019</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>153867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>36635</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>131886</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="1044" name="组合 1043"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4491404" y="5282713"/>
+          <a:ext cx="366346" cy="161192"/>
+          <a:chOff x="4491404" y="5282712"/>
+          <a:chExt cx="718038" cy="424961"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1038" name="矩形 1037"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4491404" y="5282712"/>
+            <a:ext cx="710711" cy="417634"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="195" name="直接连接符 194"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4514850" y="5314217"/>
+            <a:ext cx="694592" cy="393456"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="199" name="直接连接符 198"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4498731" y="5319346"/>
+            <a:ext cx="710711" cy="373673"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>445477</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123092</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>130421</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="203" name="组合 202"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5955323" y="5281248"/>
+          <a:ext cx="366346" cy="161192"/>
+          <a:chOff x="4491404" y="5282712"/>
+          <a:chExt cx="718038" cy="424961"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="204" name="矩形 203"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4491404" y="5282712"/>
+            <a:ext cx="710711" cy="417634"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="205" name="直接连接符 204"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4514850" y="5314217"/>
+            <a:ext cx="694592" cy="393456"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="206" name="直接连接符 205"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4498731" y="5319346"/>
+            <a:ext cx="710711" cy="373673"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>451338</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>128953</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158263</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="208" name="组合 207"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5272453" y="1828802"/>
+          <a:ext cx="366346" cy="161192"/>
+          <a:chOff x="4491404" y="5282712"/>
+          <a:chExt cx="718038" cy="424961"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="209" name="矩形 208"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4491404" y="5282712"/>
+            <a:ext cx="710711" cy="417634"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="210" name="直接连接符 209"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4514850" y="5314217"/>
+            <a:ext cx="694592" cy="393456"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="211" name="直接连接符 210"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4498731" y="5319346"/>
+            <a:ext cx="710711" cy="373673"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>596411</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>46891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>71803</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>20515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="剪去同侧角的矩形 211"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2662603" y="1329103"/>
+          <a:ext cx="164123" cy="156797"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>529003</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4395</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>26375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="剪去同侧角的矩形 212"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3283926" y="1334963"/>
+          <a:ext cx="164123" cy="156797"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335573</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>13190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>496765</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>13190</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="214" name="组合 213"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5742842" y="4328748"/>
+          <a:ext cx="366346" cy="161192"/>
+          <a:chOff x="4491404" y="5282712"/>
+          <a:chExt cx="718038" cy="424961"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="215" name="矩形 214"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4491404" y="5282712"/>
+            <a:ext cx="710711" cy="417634"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="216" name="直接连接符 215"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4514850" y="5314217"/>
+            <a:ext cx="694592" cy="393456"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="217" name="直接连接符 216"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4498731" y="5319346"/>
+            <a:ext cx="710711" cy="373673"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>246185</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>48358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>407377</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>48358</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="218" name="组合 217"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2209800" y="4180743"/>
+          <a:ext cx="366346" cy="161192"/>
+          <a:chOff x="4491404" y="5282712"/>
+          <a:chExt cx="718038" cy="424961"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="219" name="矩形 218"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4491404" y="5282712"/>
+            <a:ext cx="710711" cy="417634"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="220" name="直接连接符 219"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4514850" y="5314217"/>
+            <a:ext cx="694592" cy="393456"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="221" name="直接连接符 220"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4498731" y="5319346"/>
+            <a:ext cx="710711" cy="373673"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>363414</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>70340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>524606</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>70340</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="222" name="组合 221"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5770683" y="1821475"/>
+          <a:ext cx="366346" cy="161192"/>
+          <a:chOff x="4491404" y="5282712"/>
+          <a:chExt cx="718038" cy="424961"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="223" name="矩形 222"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4491404" y="5282712"/>
+            <a:ext cx="710711" cy="417634"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="224" name="直接连接符 223"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4514850" y="5314217"/>
+            <a:ext cx="694592" cy="393456"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="225" name="直接连接符 224"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4498731" y="5319346"/>
+            <a:ext cx="710711" cy="373673"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>186104</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>24911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="226" name="流程图: 对照 225"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3629758" y="1307123"/>
+          <a:ext cx="175846" cy="146538"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartCollate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F019F5"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30773</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>206619</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>96715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="流程图: 对照 226"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4163158" y="3247292"/>
+          <a:ext cx="175846" cy="146538"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartCollate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F019F5"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>583228</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>141410</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>91593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="228" name="直接连接符 227"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="52" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5404343" y="3180617"/>
+          <a:ext cx="935644" cy="24918"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>193434</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>148743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>42796</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>154544</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="230" name="直接连接符 229"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="53" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4325819" y="3262685"/>
+          <a:ext cx="538092" cy="5801"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>274027</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>278423</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153867</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="直接连接符 231"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="226" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3717681" y="1453661"/>
+          <a:ext cx="4396" cy="2180494"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>132624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>300404</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="235" name="直接连接符 234"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467104" y="3612912"/>
+          <a:ext cx="276954" cy="6588"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279892</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>129253</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>145752</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="239" name="直接连接符 238"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3723546" y="3253893"/>
+          <a:ext cx="538092" cy="5801"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="F019F5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="A0A0A0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1706,6 +5911,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1740,6 +5946,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1915,14 +6122,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1931,12 +6141,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1944,12 +6154,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
